--- a/Documentation/Beta Test Feedback/Beta test feedback summary.xlsx
+++ b/Documentation/Beta Test Feedback/Beta test feedback summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>Item</t>
   </si>
@@ -119,6 +119,36 @@
   </si>
   <si>
     <t>projects with the same name can be created</t>
+  </si>
+  <si>
+    <t>Projects should be unique</t>
+  </si>
+  <si>
+    <t>Discussed with sponsor for clarification, as long as a unique key is available it will be suitable, Also he requested a POB field to be added</t>
+  </si>
+  <si>
+    <t>Project model updated and pages updated to include new field</t>
+  </si>
+  <si>
+    <t>Date pickers do not allow changing years</t>
+  </si>
+  <si>
+    <t>Update date pickers so years can be easily selected</t>
+  </si>
+  <si>
+    <t>pages updated</t>
+  </si>
+  <si>
+    <t>implement new resource view</t>
+  </si>
+  <si>
+    <t>Add resource view for resources and what assignments they have</t>
+  </si>
+  <si>
+    <t>denied, out of scope of project</t>
+  </si>
+  <si>
+    <t>N/a</t>
   </si>
 </sst>
 </file>
@@ -467,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,6 +688,49 @@
       <c r="B11" t="s">
         <v>34</v>
       </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Beta Test Feedback/Beta test feedback summary.xlsx
+++ b/Documentation/Beta Test Feedback/Beta test feedback summary.xlsx
@@ -500,12 +500,12 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="249.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
